--- a/server/controllers/malumotlar.xlsx
+++ b/server/controllers/malumotlar.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -447,58 +447,58 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Alisher pppp</v>
+        <v>Xoliqulov Abdullajon</v>
       </c>
       <c r="B2" t="str">
-        <v>RT 9382</v>
+        <v>YH0982734</v>
       </c>
       <c r="C2" t="str">
         <v>BC</v>
       </c>
       <c r="D2" t="str">
-        <v>AB 999 C</v>
+        <v>HJ 900 K</v>
       </c>
       <c r="E2" t="str">
         <v>Ха</v>
       </c>
       <c r="F2" t="str">
-        <v>0000</v>
+        <v>UK87261</v>
       </c>
       <c r="G2" t="str">
-        <v>2022-02-16</v>
+        <v>2022-02-24</v>
       </c>
       <c r="H2" t="str">
-        <v>Cobalt</v>
+        <v>Nexia</v>
       </c>
       <c r="I2" t="str">
         <v>Navoi Buxoro</v>
       </c>
       <c r="J2" t="str">
-        <v>Abdurahmon MchJ</v>
+        <v>Buyuk Ipak Yo'li Tran MChJ</v>
       </c>
       <c r="K2" t="str">
         <v>AC983722</v>
       </c>
       <c r="L2" t="str">
-        <v>2021-12-15</v>
+        <v>2021-12-01</v>
       </c>
       <c r="M2" t="str">
         <v>Navoi sh. IIB</v>
       </c>
       <c r="N2" t="str">
-        <v>2022-02-14</v>
+        <v>2022-04-28</v>
       </c>
       <c r="O2" t="str">
-        <v>2022-02-13</v>
+        <v>2022-02-25</v>
       </c>
       <c r="P2" t="str">
-        <v>2022-02-11</v>
+        <v>2022-04-01</v>
       </c>
       <c r="Q2" t="str">
+        <v>2022-03-12</v>
+      </c>
+      <c r="R2" t="str">
         <v>2022-02-24</v>
-      </c>
-      <c r="R2" t="str">
-        <v>2022-02-18</v>
       </c>
       <c r="S2" t="str">
         <v>2022-02-25</v>
@@ -512,37 +512,37 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v/>
+        <v>Alijon Shamsiyev</v>
       </c>
       <c r="B3" t="str">
-        <v/>
+        <v>JN928732</v>
       </c>
       <c r="C3" t="str">
-        <v/>
+        <v>B</v>
       </c>
       <c r="D3" t="str">
-        <v>0000</v>
+        <v>KJ 928 L</v>
       </c>
       <c r="E3" t="str">
-        <v>Ёъқ</v>
+        <v>Ха</v>
       </c>
       <c r="F3" t="str">
-        <v/>
+        <v>UK271613</v>
       </c>
       <c r="G3" t="str">
-        <v/>
+        <v>2022-02-16</v>
       </c>
       <c r="H3" t="str">
-        <v/>
+        <v>Lacetti 4</v>
       </c>
       <c r="I3" t="str">
-        <v/>
+        <v>Navoi Buxoro</v>
       </c>
       <c r="J3" t="str">
-        <v>JS ROBOTICS Co.</v>
+        <v>Buyuk Ipak Yo'li Tran MChJ</v>
       </c>
       <c r="K3" t="str">
-        <v/>
+        <v>AA9827372</v>
       </c>
       <c r="L3" t="str">
         <v/>
@@ -551,125 +551,125 @@
         <v/>
       </c>
       <c r="N3" t="str">
-        <v/>
+        <v>2022-03-03</v>
       </c>
       <c r="O3" t="str">
-        <v/>
+        <v>2022-02-23</v>
       </c>
       <c r="P3" t="str">
-        <v/>
+        <v>2022-03-12</v>
       </c>
       <c r="Q3" t="str">
-        <v/>
+        <v>2022-03-04</v>
       </c>
       <c r="R3" t="str">
-        <v/>
+        <v>2022-03-03</v>
       </c>
       <c r="S3" t="str">
-        <v/>
+        <v>2022-02-26</v>
       </c>
       <c r="T3" t="str">
-        <v/>
+        <v>12-23-12</v>
       </c>
       <c r="U3" t="str">
-        <v/>
+        <v>93 465 78 90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v/>
+        <v>Alisher Jo'rayev</v>
       </c>
       <c r="B4" t="str">
-        <v/>
+        <v>YH827281</v>
       </c>
       <c r="C4" t="str">
-        <v/>
+        <v>BC</v>
       </c>
       <c r="D4" t="str">
-        <v>0000</v>
+        <v>EE 983 J</v>
       </c>
       <c r="E4" t="str">
         <v>Ёъқ</v>
       </c>
       <c r="F4" t="str">
-        <v/>
+        <v>UK827121</v>
       </c>
       <c r="G4" t="str">
-        <v/>
+        <v>2022-02-24</v>
       </c>
       <c r="H4" t="str">
-        <v/>
+        <v>Cobalt</v>
       </c>
       <c r="I4" t="str">
-        <v/>
+        <v>Zarafshon Navoi</v>
       </c>
       <c r="J4" t="str">
-        <v>JS ROBOTICS Co.</v>
+        <v>Muhammad Ali Tran MChJ</v>
       </c>
       <c r="K4" t="str">
-        <v/>
+        <v>AC983722</v>
       </c>
       <c r="L4" t="str">
-        <v/>
+        <v>2022-02-03</v>
       </c>
       <c r="M4" t="str">
-        <v/>
+        <v>Zarafshon sh. IIB</v>
       </c>
       <c r="N4" t="str">
-        <v/>
+        <v>2022-02-23</v>
       </c>
       <c r="O4" t="str">
-        <v/>
+        <v>2022-04-14</v>
       </c>
       <c r="P4" t="str">
-        <v/>
+        <v>2022-05-20</v>
       </c>
       <c r="Q4" t="str">
-        <v/>
+        <v>2022-03-12</v>
       </c>
       <c r="R4" t="str">
-        <v/>
+        <v>2022-02-25</v>
       </c>
       <c r="S4" t="str">
-        <v/>
+        <v>2022-03-09</v>
       </c>
       <c r="T4" t="str">
-        <v/>
+        <v>11-24-78</v>
       </c>
       <c r="U4" t="str">
-        <v/>
+        <v>98 673 78 78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v/>
+        <v>Boboqul Sanayev</v>
       </c>
       <c r="B5" t="str">
-        <v/>
+        <v>SD9282372</v>
       </c>
       <c r="C5" t="str">
-        <v/>
+        <v>B</v>
       </c>
       <c r="D5" t="str">
-        <v>0000</v>
+        <v>EE 983 J</v>
       </c>
       <c r="E5" t="str">
         <v>Ха</v>
       </c>
       <c r="F5" t="str">
-        <v/>
+        <v>ER827271</v>
       </c>
       <c r="G5" t="str">
-        <v/>
+        <v>2022-02-24</v>
       </c>
       <c r="H5" t="str">
-        <v/>
+        <v>Cobalt</v>
       </c>
       <c r="I5" t="str">
-        <v/>
+        <v>Zarafshon Navoi</v>
       </c>
       <c r="J5" t="str">
-        <v>Buyuk Ipak Yo'li Tran MChJ</v>
+        <v>Muhammad Ali Tran MChJ</v>
       </c>
       <c r="K5" t="str">
         <v/>
@@ -678,296 +678,36 @@
         <v/>
       </c>
       <c r="M5" t="str">
-        <v/>
+        <v>Navoi sh. IIB</v>
       </c>
       <c r="N5" t="str">
-        <v/>
+        <v>2022-05-27</v>
       </c>
       <c r="O5" t="str">
-        <v/>
+        <v>2022-03-02</v>
       </c>
       <c r="P5" t="str">
-        <v/>
+        <v>2022-06-23</v>
       </c>
       <c r="Q5" t="str">
-        <v/>
+        <v>2022-05-19</v>
       </c>
       <c r="R5" t="str">
-        <v/>
+        <v>2022-03-04</v>
       </c>
       <c r="S5" t="str">
-        <v/>
+        <v>2022-03-10</v>
       </c>
       <c r="T5" t="str">
-        <v/>
+        <v>4-34-65</v>
       </c>
       <c r="U5" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v/>
-      </c>
-      <c r="B6" t="str">
-        <v/>
-      </c>
-      <c r="C6" t="str">
-        <v/>
-      </c>
-      <c r="D6" t="str">
-        <v>AB 234 ON</v>
-      </c>
-      <c r="E6" t="str">
-        <v>Ха</v>
-      </c>
-      <c r="F6" t="str">
-        <v/>
-      </c>
-      <c r="G6" t="str">
-        <v/>
-      </c>
-      <c r="H6" t="str">
-        <v/>
-      </c>
-      <c r="I6" t="str">
-        <v/>
-      </c>
-      <c r="J6" t="str">
-        <v>Buyuk Ipak Yo'li Tran MChJ</v>
-      </c>
-      <c r="K6" t="str">
-        <v/>
-      </c>
-      <c r="L6" t="str">
-        <v/>
-      </c>
-      <c r="M6" t="str">
-        <v/>
-      </c>
-      <c r="N6" t="str">
-        <v/>
-      </c>
-      <c r="O6" t="str">
-        <v/>
-      </c>
-      <c r="P6" t="str">
-        <v/>
-      </c>
-      <c r="Q6" t="str">
-        <v/>
-      </c>
-      <c r="R6" t="str">
-        <v/>
-      </c>
-      <c r="S6" t="str">
-        <v/>
-      </c>
-      <c r="T6" t="str">
-        <v/>
-      </c>
-      <c r="U6" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v/>
-      </c>
-      <c r="B7" t="str">
-        <v/>
-      </c>
-      <c r="C7" t="str">
-        <v/>
-      </c>
-      <c r="D7" t="str">
-        <v>CCCC</v>
-      </c>
-      <c r="E7" t="str">
-        <v>Ха</v>
-      </c>
-      <c r="F7" t="str">
-        <v/>
-      </c>
-      <c r="G7" t="str">
-        <v/>
-      </c>
-      <c r="H7" t="str">
-        <v/>
-      </c>
-      <c r="I7" t="str">
-        <v/>
-      </c>
-      <c r="J7" t="str">
-        <v>Abdurahmon MchJ</v>
-      </c>
-      <c r="K7" t="str">
-        <v/>
-      </c>
-      <c r="L7" t="str">
-        <v/>
-      </c>
-      <c r="M7" t="str">
-        <v/>
-      </c>
-      <c r="N7" t="str">
-        <v/>
-      </c>
-      <c r="O7" t="str">
-        <v/>
-      </c>
-      <c r="P7" t="str">
-        <v/>
-      </c>
-      <c r="Q7" t="str">
-        <v/>
-      </c>
-      <c r="R7" t="str">
-        <v/>
-      </c>
-      <c r="S7" t="str">
-        <v/>
-      </c>
-      <c r="T7" t="str">
-        <v/>
-      </c>
-      <c r="U7" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v/>
-      </c>
-      <c r="B8" t="str">
-        <v/>
-      </c>
-      <c r="C8" t="str">
-        <v/>
-      </c>
-      <c r="D8" t="str">
-        <v>XXXX</v>
-      </c>
-      <c r="E8" t="str">
-        <v>Ха</v>
-      </c>
-      <c r="F8" t="str">
-        <v/>
-      </c>
-      <c r="G8" t="str">
-        <v/>
-      </c>
-      <c r="H8" t="str">
-        <v/>
-      </c>
-      <c r="I8" t="str">
-        <v/>
-      </c>
-      <c r="J8" t="str">
-        <v>Xoliqulov MChJ</v>
-      </c>
-      <c r="K8" t="str">
-        <v/>
-      </c>
-      <c r="L8" t="str">
-        <v/>
-      </c>
-      <c r="M8" t="str">
-        <v/>
-      </c>
-      <c r="N8" t="str">
-        <v/>
-      </c>
-      <c r="O8" t="str">
-        <v/>
-      </c>
-      <c r="P8" t="str">
-        <v/>
-      </c>
-      <c r="Q8" t="str">
-        <v/>
-      </c>
-      <c r="R8" t="str">
-        <v/>
-      </c>
-      <c r="S8" t="str">
-        <v/>
-      </c>
-      <c r="T8" t="str">
-        <v/>
-      </c>
-      <c r="U8" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v/>
-      </c>
-      <c r="B9" t="str">
-        <v/>
-      </c>
-      <c r="C9" t="str">
-        <v/>
-      </c>
-      <c r="D9" t="str">
-        <v>QQQQ</v>
-      </c>
-      <c r="E9" t="str">
-        <v>Ха</v>
-      </c>
-      <c r="F9" t="str">
-        <v/>
-      </c>
-      <c r="G9" t="str">
-        <v/>
-      </c>
-      <c r="H9" t="str">
-        <v/>
-      </c>
-      <c r="I9" t="str">
-        <v/>
-      </c>
-      <c r="J9" t="str">
-        <v>Abdurahmon MchJ</v>
-      </c>
-      <c r="K9" t="str">
-        <v/>
-      </c>
-      <c r="L9" t="str">
-        <v/>
-      </c>
-      <c r="M9" t="str">
-        <v/>
-      </c>
-      <c r="N9" t="str">
-        <v/>
-      </c>
-      <c r="O9" t="str">
-        <v/>
-      </c>
-      <c r="P9" t="str">
-        <v/>
-      </c>
-      <c r="Q9" t="str">
-        <v/>
-      </c>
-      <c r="R9" t="str">
-        <v/>
-      </c>
-      <c r="S9" t="str">
-        <v/>
-      </c>
-      <c r="T9" t="str">
-        <v/>
-      </c>
-      <c r="U9" t="str">
-        <v/>
+        <v>99 465 78 34</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:U9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:U5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/controllers/malumotlar.xlsx
+++ b/server/controllers/malumotlar.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -447,155 +447,155 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Xoliqulov Abdullajon</v>
+        <v>Alijon Shamsiyev</v>
       </c>
       <c r="B2" t="str">
-        <v>YH0982734</v>
+        <v>JN928732</v>
       </c>
       <c r="C2" t="str">
-        <v>BC</v>
+        <v>B</v>
       </c>
       <c r="D2" t="str">
-        <v>HJ 900 K</v>
+        <v>KJ 928 L</v>
       </c>
       <c r="E2" t="str">
         <v>Ха</v>
       </c>
       <c r="F2" t="str">
-        <v>UK87261</v>
+        <v>UK271613</v>
       </c>
       <c r="G2" t="str">
-        <v>2022-02-24</v>
+        <v>16-02-2022</v>
       </c>
       <c r="H2" t="str">
-        <v>Nexia</v>
+        <v>Lacetti 4</v>
       </c>
       <c r="I2" t="str">
         <v>Navoi Buxoro</v>
       </c>
       <c r="J2" t="str">
-        <v>Buyuk Ipak Yo'li Tran MChJ</v>
+        <v>Muhammad Ali Tran MChJ</v>
       </c>
       <c r="K2" t="str">
-        <v>AC983722</v>
+        <v>AA9827372</v>
       </c>
       <c r="L2" t="str">
-        <v>2021-12-01</v>
+        <v/>
       </c>
       <c r="M2" t="str">
-        <v>Navoi sh. IIB</v>
+        <v/>
       </c>
       <c r="N2" t="str">
-        <v>2022-04-28</v>
+        <v>03-03-2022</v>
       </c>
       <c r="O2" t="str">
-        <v>2022-02-25</v>
+        <v>23-02-2022</v>
       </c>
       <c r="P2" t="str">
-        <v>2022-04-01</v>
+        <v>12-03-2022</v>
       </c>
       <c r="Q2" t="str">
-        <v>2022-03-12</v>
+        <v>04-03-2022</v>
       </c>
       <c r="R2" t="str">
-        <v>2022-02-24</v>
+        <v>03-03-2022</v>
       </c>
       <c r="S2" t="str">
-        <v>2022-02-25</v>
+        <v>26-02-2022</v>
       </c>
       <c r="T2" t="str">
-        <v>3-31-16</v>
+        <v>12-23-12</v>
       </c>
       <c r="U2" t="str">
-        <v>573 78 90</v>
+        <v>93 465 78 90</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Alijon Shamsiyev</v>
+        <v>Alisher Jo'rayev</v>
       </c>
       <c r="B3" t="str">
-        <v>JN928732</v>
+        <v>YH827281</v>
       </c>
       <c r="C3" t="str">
-        <v>B</v>
+        <v>BC</v>
       </c>
       <c r="D3" t="str">
-        <v>KJ 928 L</v>
+        <v>EE 983 J</v>
       </c>
       <c r="E3" t="str">
-        <v>Ха</v>
+        <v>Ёъқ</v>
       </c>
       <c r="F3" t="str">
-        <v>UK271613</v>
+        <v>UK827121</v>
       </c>
       <c r="G3" t="str">
-        <v>2022-02-16</v>
+        <v>24-02-2022</v>
       </c>
       <c r="H3" t="str">
-        <v>Lacetti 4</v>
+        <v>Cobalt</v>
       </c>
       <c r="I3" t="str">
-        <v>Navoi Buxoro</v>
+        <v>Zarafshon Navoi</v>
       </c>
       <c r="J3" t="str">
-        <v>Buyuk Ipak Yo'li Tran MChJ</v>
+        <v>Muhammad Ali Tran MChJ</v>
       </c>
       <c r="K3" t="str">
-        <v>AA9827372</v>
+        <v>AC983722</v>
       </c>
       <c r="L3" t="str">
-        <v/>
+        <v>03-02-2022</v>
       </c>
       <c r="M3" t="str">
-        <v/>
+        <v>Zarafshon sh. IIB</v>
       </c>
       <c r="N3" t="str">
-        <v>2022-03-03</v>
+        <v>23-02-2022</v>
       </c>
       <c r="O3" t="str">
-        <v>2022-02-23</v>
+        <v>14-04-2022</v>
       </c>
       <c r="P3" t="str">
-        <v>2022-03-12</v>
+        <v>20-05-2022</v>
       </c>
       <c r="Q3" t="str">
-        <v>2022-03-04</v>
+        <v>12-03-2022</v>
       </c>
       <c r="R3" t="str">
-        <v>2022-03-03</v>
+        <v>25-02-2022</v>
       </c>
       <c r="S3" t="str">
-        <v>2022-02-26</v>
+        <v>09-03-2022</v>
       </c>
       <c r="T3" t="str">
-        <v>12-23-12</v>
+        <v>11-24-78</v>
       </c>
       <c r="U3" t="str">
-        <v>93 465 78 90</v>
+        <v>98 673 78 78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Alisher Jo'rayev</v>
+        <v>Boboqul Sanayev</v>
       </c>
       <c r="B4" t="str">
-        <v>YH827281</v>
+        <v>SD9282372</v>
       </c>
       <c r="C4" t="str">
-        <v>BC</v>
+        <v>B</v>
       </c>
       <c r="D4" t="str">
         <v>EE 983 J</v>
       </c>
       <c r="E4" t="str">
-        <v>Ёъқ</v>
+        <v>Ха</v>
       </c>
       <c r="F4" t="str">
-        <v>UK827121</v>
+        <v>ER827271</v>
       </c>
       <c r="G4" t="str">
-        <v>2022-02-24</v>
+        <v>24-02-2022</v>
       </c>
       <c r="H4" t="str">
         <v>Cobalt</v>
@@ -604,110 +604,45 @@
         <v>Zarafshon Navoi</v>
       </c>
       <c r="J4" t="str">
-        <v>Muhammad Ali Tran MChJ</v>
+        <v>Ganijon Shamsiyev</v>
       </c>
       <c r="K4" t="str">
-        <v>AC983722</v>
+        <v/>
       </c>
       <c r="L4" t="str">
-        <v>2022-02-03</v>
+        <v/>
       </c>
       <c r="M4" t="str">
-        <v>Zarafshon sh. IIB</v>
+        <v>Navoi sh. IIB</v>
       </c>
       <c r="N4" t="str">
-        <v>2022-02-23</v>
+        <v>27-05-2022</v>
       </c>
       <c r="O4" t="str">
-        <v>2022-04-14</v>
+        <v>02-03-2022</v>
       </c>
       <c r="P4" t="str">
-        <v>2022-05-20</v>
+        <v>23-06-2022</v>
       </c>
       <c r="Q4" t="str">
-        <v>2022-03-12</v>
+        <v>19-05-2022</v>
       </c>
       <c r="R4" t="str">
-        <v>2022-02-25</v>
+        <v>04-03-2022</v>
       </c>
       <c r="S4" t="str">
-        <v>2022-03-09</v>
+        <v>10-03-2022</v>
       </c>
       <c r="T4" t="str">
-        <v>11-24-78</v>
+        <v>4-34-65</v>
       </c>
       <c r="U4" t="str">
-        <v>98 673 78 78</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Boboqul Sanayev</v>
-      </c>
-      <c r="B5" t="str">
-        <v>SD9282372</v>
-      </c>
-      <c r="C5" t="str">
-        <v>B</v>
-      </c>
-      <c r="D5" t="str">
-        <v>EE 983 J</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Ха</v>
-      </c>
-      <c r="F5" t="str">
-        <v>ER827271</v>
-      </c>
-      <c r="G5" t="str">
-        <v>2022-02-24</v>
-      </c>
-      <c r="H5" t="str">
-        <v>Cobalt</v>
-      </c>
-      <c r="I5" t="str">
-        <v>Zarafshon Navoi</v>
-      </c>
-      <c r="J5" t="str">
-        <v>Muhammad Ali Tran MChJ</v>
-      </c>
-      <c r="K5" t="str">
-        <v/>
-      </c>
-      <c r="L5" t="str">
-        <v/>
-      </c>
-      <c r="M5" t="str">
-        <v>Navoi sh. IIB</v>
-      </c>
-      <c r="N5" t="str">
-        <v>2022-05-27</v>
-      </c>
-      <c r="O5" t="str">
-        <v>2022-03-02</v>
-      </c>
-      <c r="P5" t="str">
-        <v>2022-06-23</v>
-      </c>
-      <c r="Q5" t="str">
-        <v>2022-05-19</v>
-      </c>
-      <c r="R5" t="str">
-        <v>2022-03-04</v>
-      </c>
-      <c r="S5" t="str">
-        <v>2022-03-10</v>
-      </c>
-      <c r="T5" t="str">
-        <v>4-34-65</v>
-      </c>
-      <c r="U5" t="str">
         <v>99 465 78 34</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:U5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:U4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/controllers/malumotlar.xlsx
+++ b/server/controllers/malumotlar.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -447,202 +447,137 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Alijon Shamsiyev</v>
+        <v>cccc</v>
       </c>
       <c r="B2" t="str">
-        <v>JN928732</v>
+        <v/>
       </c>
       <c r="C2" t="str">
-        <v>B</v>
+        <v/>
       </c>
       <c r="D2" t="str">
-        <v>KJ 928 L</v>
+        <v>AB 3423 Y</v>
       </c>
       <c r="E2" t="str">
         <v>Ха</v>
       </c>
       <c r="F2" t="str">
-        <v>UK271613</v>
+        <v>12312</v>
       </c>
       <c r="G2" t="str">
-        <v>16-02-2022</v>
+        <v>17-02-2022</v>
       </c>
       <c r="H2" t="str">
-        <v>Lacetti 4</v>
+        <v/>
       </c>
       <c r="I2" t="str">
-        <v>Navoi Buxoro</v>
+        <v/>
       </c>
       <c r="J2" t="str">
-        <v>Muhammad Ali Tran MChJ</v>
+        <v>Company 2</v>
       </c>
       <c r="K2" t="str">
-        <v>AA9827372</v>
+        <v/>
       </c>
       <c r="L2" t="str">
-        <v/>
+        <v>01-02-2022</v>
       </c>
       <c r="M2" t="str">
         <v/>
       </c>
       <c r="N2" t="str">
-        <v>03-03-2022</v>
+        <v>11-03-2022</v>
       </c>
       <c r="O2" t="str">
-        <v>23-02-2022</v>
+        <v>24-02-2022</v>
       </c>
       <c r="P2" t="str">
+        <v>05-03-2022</v>
+      </c>
+      <c r="Q2" t="str">
         <v>12-03-2022</v>
       </c>
-      <c r="Q2" t="str">
-        <v>04-03-2022</v>
-      </c>
       <c r="R2" t="str">
-        <v>03-03-2022</v>
+        <v>24-02-2022</v>
       </c>
       <c r="S2" t="str">
-        <v>26-02-2022</v>
+        <v>24-02-2022</v>
       </c>
       <c r="T2" t="str">
-        <v>12-23-12</v>
+        <v/>
       </c>
       <c r="U2" t="str">
-        <v>93 465 78 90</v>
+        <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Alisher Jo'rayev</v>
+        <v>Alex ka</v>
       </c>
       <c r="B3" t="str">
-        <v>YH827281</v>
+        <v/>
       </c>
       <c r="C3" t="str">
-        <v>BC</v>
+        <v/>
       </c>
       <c r="D3" t="str">
-        <v>EE 983 J</v>
+        <v>YH 7281 U</v>
       </c>
       <c r="E3" t="str">
-        <v>Ёъқ</v>
+        <v>Ха</v>
       </c>
       <c r="F3" t="str">
-        <v>UK827121</v>
+        <v/>
       </c>
       <c r="G3" t="str">
-        <v>24-02-2022</v>
+        <v/>
       </c>
       <c r="H3" t="str">
-        <v>Cobalt</v>
+        <v/>
       </c>
       <c r="I3" t="str">
-        <v>Zarafshon Navoi</v>
+        <v/>
       </c>
       <c r="J3" t="str">
-        <v>Muhammad Ali Tran MChJ</v>
+        <v>Comapany 1</v>
       </c>
       <c r="K3" t="str">
-        <v>AC983722</v>
+        <v/>
       </c>
       <c r="L3" t="str">
-        <v>03-02-2022</v>
+        <v/>
       </c>
       <c r="M3" t="str">
-        <v>Zarafshon sh. IIB</v>
+        <v/>
       </c>
       <c r="N3" t="str">
-        <v>23-02-2022</v>
+        <v/>
       </c>
       <c r="O3" t="str">
-        <v>14-04-2022</v>
+        <v/>
       </c>
       <c r="P3" t="str">
-        <v>20-05-2022</v>
+        <v/>
       </c>
       <c r="Q3" t="str">
-        <v>12-03-2022</v>
+        <v/>
       </c>
       <c r="R3" t="str">
-        <v>25-02-2022</v>
+        <v/>
       </c>
       <c r="S3" t="str">
-        <v>09-03-2022</v>
+        <v/>
       </c>
       <c r="T3" t="str">
-        <v>11-24-78</v>
+        <v/>
       </c>
       <c r="U3" t="str">
-        <v>98 673 78 78</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Boboqul Sanayev</v>
-      </c>
-      <c r="B4" t="str">
-        <v>SD9282372</v>
-      </c>
-      <c r="C4" t="str">
-        <v>B</v>
-      </c>
-      <c r="D4" t="str">
-        <v>EE 983 J</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Ха</v>
-      </c>
-      <c r="F4" t="str">
-        <v>ER827271</v>
-      </c>
-      <c r="G4" t="str">
-        <v>24-02-2022</v>
-      </c>
-      <c r="H4" t="str">
-        <v>Cobalt</v>
-      </c>
-      <c r="I4" t="str">
-        <v>Zarafshon Navoi</v>
-      </c>
-      <c r="J4" t="str">
-        <v>Ganijon Shamsiyev</v>
-      </c>
-      <c r="K4" t="str">
-        <v/>
-      </c>
-      <c r="L4" t="str">
-        <v/>
-      </c>
-      <c r="M4" t="str">
-        <v>Navoi sh. IIB</v>
-      </c>
-      <c r="N4" t="str">
-        <v>27-05-2022</v>
-      </c>
-      <c r="O4" t="str">
-        <v>02-03-2022</v>
-      </c>
-      <c r="P4" t="str">
-        <v>23-06-2022</v>
-      </c>
-      <c r="Q4" t="str">
-        <v>19-05-2022</v>
-      </c>
-      <c r="R4" t="str">
-        <v>04-03-2022</v>
-      </c>
-      <c r="S4" t="str">
-        <v>10-03-2022</v>
-      </c>
-      <c r="T4" t="str">
-        <v>4-34-65</v>
-      </c>
-      <c r="U4" t="str">
-        <v>99 465 78 34</v>
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:U4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:U3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/controllers/malumotlar.xlsx
+++ b/server/controllers/malumotlar.xlsx
@@ -375,209 +375,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Ф.И.О</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Ҳайдовчи гувоҳномаси</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Тоифаси</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Автомобил рақами</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Асосий Шофер</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Лицензия АТ №</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Лицензия муддати</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Автомобил русуми</v>
-      </c>
-      <c r="I1" t="str">
-        <v>Йўналиш номи</v>
-      </c>
-      <c r="J1" t="str">
-        <v>Фирма номи</v>
-      </c>
-      <c r="K1" t="str">
-        <v>Паспорт сериаси &amp; рақами</v>
-      </c>
-      <c r="L1" t="str">
-        <v>Паспорт берилган сана</v>
-      </c>
-      <c r="M1" t="str">
-        <v>Паспорт берувчи маъмурият</v>
-      </c>
-      <c r="N1" t="str">
-        <v>Тех. курик муддат</v>
-      </c>
-      <c r="O1" t="str">
-        <v>Ижара шартнома муддати</v>
-      </c>
-      <c r="P1" t="str">
-        <v>Полис муддати</v>
-      </c>
-      <c r="Q1" t="str">
-        <v>Газ балон муддат</v>
-      </c>
-      <c r="R1" t="str">
-        <v>Тиббий кўрик муддати</v>
-      </c>
-      <c r="S1" t="str">
-        <v>Меҳнат шартнома муддати</v>
-      </c>
-      <c r="T1" t="str">
-        <v>Манзил</v>
-      </c>
-      <c r="U1" t="str">
-        <v>Телефон</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>cccc</v>
-      </c>
-      <c r="B2" t="str">
-        <v/>
-      </c>
-      <c r="C2" t="str">
-        <v/>
-      </c>
-      <c r="D2" t="str">
-        <v>AB 3423 Y</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Ха</v>
-      </c>
-      <c r="F2" t="str">
-        <v>12312</v>
-      </c>
-      <c r="G2" t="str">
-        <v>17-02-2022</v>
-      </c>
-      <c r="H2" t="str">
-        <v/>
-      </c>
-      <c r="I2" t="str">
-        <v/>
-      </c>
-      <c r="J2" t="str">
-        <v>Company 2</v>
-      </c>
-      <c r="K2" t="str">
-        <v/>
-      </c>
-      <c r="L2" t="str">
-        <v>01-02-2022</v>
-      </c>
-      <c r="M2" t="str">
-        <v/>
-      </c>
-      <c r="N2" t="str">
-        <v>11-03-2022</v>
-      </c>
-      <c r="O2" t="str">
-        <v>24-02-2022</v>
-      </c>
-      <c r="P2" t="str">
-        <v>05-03-2022</v>
-      </c>
-      <c r="Q2" t="str">
-        <v>12-03-2022</v>
-      </c>
-      <c r="R2" t="str">
-        <v>24-02-2022</v>
-      </c>
-      <c r="S2" t="str">
-        <v>24-02-2022</v>
-      </c>
-      <c r="T2" t="str">
-        <v/>
-      </c>
-      <c r="U2" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Alex ka</v>
-      </c>
-      <c r="B3" t="str">
-        <v/>
-      </c>
-      <c r="C3" t="str">
-        <v/>
-      </c>
-      <c r="D3" t="str">
-        <v>YH 7281 U</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Ха</v>
-      </c>
-      <c r="F3" t="str">
-        <v/>
-      </c>
-      <c r="G3" t="str">
-        <v/>
-      </c>
-      <c r="H3" t="str">
-        <v/>
-      </c>
-      <c r="I3" t="str">
-        <v/>
-      </c>
-      <c r="J3" t="str">
-        <v>Comapany 1</v>
-      </c>
-      <c r="K3" t="str">
-        <v/>
-      </c>
-      <c r="L3" t="str">
-        <v/>
-      </c>
-      <c r="M3" t="str">
-        <v/>
-      </c>
-      <c r="N3" t="str">
-        <v/>
-      </c>
-      <c r="O3" t="str">
-        <v/>
-      </c>
-      <c r="P3" t="str">
-        <v/>
-      </c>
-      <c r="Q3" t="str">
-        <v/>
-      </c>
-      <c r="R3" t="str">
-        <v/>
-      </c>
-      <c r="S3" t="str">
-        <v/>
-      </c>
-      <c r="T3" t="str">
-        <v/>
-      </c>
-      <c r="U3" t="str">
-        <v/>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:U3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>